--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_187.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_187.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,14 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>STR</t>
   </si>
   <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
     <t>Hotel_Name</t>
   </si>
   <si>
+    <t>State</t>
+  </si>
+  <si>
     <t>City</t>
   </si>
   <si>
@@ -48,6 +123,9 @@
     <t>Suburban Extended Stay Hotel La Place</t>
   </si>
   <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
     <t>La Place</t>
   </si>
   <si>
@@ -61,78 +139,6 @@
   </si>
   <si>
     <t>7</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -503,34 +509,53 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>57568</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
-        <v>70068</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s">
-        <v>13</v>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -555,76 +580,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E2" t="n">
+        <v>70068</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="G2" t="s">
         <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_187.xlsx
+++ b/data/hotels_by_city/New_Orleans/Tripadvisor_new_orleans_shard_187.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
   <si>
     <t>STR</t>
   </si>
@@ -91,6 +91,1115 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>10/14/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r599473706-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>40267</t>
+  </si>
+  <si>
+    <t>1231096</t>
+  </si>
+  <si>
+    <t>599473706</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>I stayed at this location for 3 weeks only because of the  convenience factor to where I was working.  The hotel itself is okay, my room was clean when I arrived.  However, several of the items in the room did not work.   The hotel allows smoking so you have to deal with the smell.  It is a older place and it shows.  My biggest  complaint is the staff!!  Absolutely horrible!!!! Everytime I paid my weekly rate they would charge me $300-$500 extra. Than  verbally and extremely unprofessional argue with me and say “it’s not their problem” It was mine.   Eventually the charges would be removed and it worked out.  However the staff had no clue what they were doing had no clue how to even charge my credit card correctly. None of the staff I (encountered) seemed knowledgeable whatsoever.    I will not be a repeat customer this location. I will never recommend this place under the current management and staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed at this location for 3 weeks only because of the  convenience factor to where I was working.  The hotel itself is okay, my room was clean when I arrived.  However, several of the items in the room did not work.   The hotel allows smoking so you have to deal with the smell.  It is a older place and it shows.  My biggest  complaint is the staff!!  Absolutely horrible!!!! Everytime I paid my weekly rate they would charge me $300-$500 extra. Than  verbally and extremely unprofessional argue with me and say “it’s not their problem” It was mine.   Eventually the charges would be removed and it worked out.  However the staff had no clue what they were doing had no clue how to even charge my credit card correctly. None of the staff I (encountered) seemed knowledgeable whatsoever.    I will not be a repeat customer this location. I will never recommend this place under the current management and staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r599077296-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>599077296</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t>potential Credit Card Fraud??  a work in progress, tomorrow will tell we hope</t>
+  </si>
+  <si>
+    <t>Currently in process of attempting to resolve ongoing reservation (week to week, long term, for work).  Over 20 years have stayed in more motels than imagineable for work and yet have never had motel take it upon itself to charge customers credit card for weekly rent without the customer present.  Charge notifications indicate card not present meaning neither is owner of card who is working, yet, WITHOUT CUSTOMER PERMISSION (THIS KIND OF ACTIVITY IS CONSIDERED FRAUDULENT BTW) MOTEL GENERATES CHARGE.  IF THAT IS NOT BOLD ENOUGH, ERROR AFTER ERROR IN THE WAY OF OVERCHARGES AND AMOUNTS CHARGED BEING MORE THAN WHATS DUE, VOIDS, ETC.      Here's the best part, after being told by manager this would be resolved (currently rent plus another separate 200$ charge is being dealt with)  ....well it has not been, manager unavailable, etc.  Keep reading...when front desk is told by customer they have not been granted permission to charge whatever whenever to customer card, customer is handed a printout of some of actual transactions shown in system... incomplete, probably due to search parameters by front desk.....BUT printout also contains different customer's information also .....(search done by last 4 digits of credit card)  ....information includes other customer name, dates, and 8 of 16 digits of other customers credit card. (not to worry, we are honest)   WOW, but to be fair, will try to talk to manager again tomorrow, have locked credit card, (huge inconvenience) to protect unauthorized use...Currently in process of attempting to resolve ongoing reservation (week to week, long term, for work).  Over 20 years have stayed in more motels than imagineable for work and yet have never had motel take it upon itself to charge customers credit card for weekly rent without the customer present.  Charge notifications indicate card not present meaning neither is owner of card who is working, yet, WITHOUT CUSTOMER PERMISSION (THIS KIND OF ACTIVITY IS CONSIDERED FRAUDULENT BTW) MOTEL GENERATES CHARGE.  IF THAT IS NOT BOLD ENOUGH, ERROR AFTER ERROR IN THE WAY OF OVERCHARGES AND AMOUNTS CHARGED BEING MORE THAN WHATS DUE, VOIDS, ETC.      Here's the best part, after being told by manager this would be resolved (currently rent plus another separate 200$ charge is being dealt with)  ....well it has not been, manager unavailable, etc.  Keep reading...when front desk is told by customer they have not been granted permission to charge whatever whenever to customer card, customer is handed a printout of some of actual transactions shown in system... incomplete, probably due to search parameters by front desk.....BUT printout also contains different customer's information also .....(search done by last 4 digits of credit card)  ....information includes other customer name, dates, and 8 of 16 digits of other customers credit card. (not to worry, we are honest)   WOW, but to be fair, will try to talk to manager again tomorrow, have locked credit card, (huge inconvenience) to protect unauthorized use by motel so will repost progress as it happens.  wish us luck.  BTW ...usual procedure is to pay a visit to front desk when our rent is due and handle payment in that manner, the way ALL OTHER MOTELS handle those of us who work out on the road, until job is done, rent week to week, being honest, no other motel has ever done this to us.  We not only have unauthorized transactions but additional transactions for ??? besides rent.  I have never been late paying my rent, what is the deal?  How do they figure it is ok, knowing I will be staying another week and will be down to pay rent when it comes due, to just bring up my card info and charge to it.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Currently in process of attempting to resolve ongoing reservation (week to week, long term, for work).  Over 20 years have stayed in more motels than imagineable for work and yet have never had motel take it upon itself to charge customers credit card for weekly rent without the customer present.  Charge notifications indicate card not present meaning neither is owner of card who is working, yet, WITHOUT CUSTOMER PERMISSION (THIS KIND OF ACTIVITY IS CONSIDERED FRAUDULENT BTW) MOTEL GENERATES CHARGE.  IF THAT IS NOT BOLD ENOUGH, ERROR AFTER ERROR IN THE WAY OF OVERCHARGES AND AMOUNTS CHARGED BEING MORE THAN WHATS DUE, VOIDS, ETC.      Here's the best part, after being told by manager this would be resolved (currently rent plus another separate 200$ charge is being dealt with)  ....well it has not been, manager unavailable, etc.  Keep reading...when front desk is told by customer they have not been granted permission to charge whatever whenever to customer card, customer is handed a printout of some of actual transactions shown in system... incomplete, probably due to search parameters by front desk.....BUT printout also contains different customer's information also .....(search done by last 4 digits of credit card)  ....information includes other customer name, dates, and 8 of 16 digits of other customers credit card. (not to worry, we are honest)   WOW, but to be fair, will try to talk to manager again tomorrow, have locked credit card, (huge inconvenience) to protect unauthorized use...Currently in process of attempting to resolve ongoing reservation (week to week, long term, for work).  Over 20 years have stayed in more motels than imagineable for work and yet have never had motel take it upon itself to charge customers credit card for weekly rent without the customer present.  Charge notifications indicate card not present meaning neither is owner of card who is working, yet, WITHOUT CUSTOMER PERMISSION (THIS KIND OF ACTIVITY IS CONSIDERED FRAUDULENT BTW) MOTEL GENERATES CHARGE.  IF THAT IS NOT BOLD ENOUGH, ERROR AFTER ERROR IN THE WAY OF OVERCHARGES AND AMOUNTS CHARGED BEING MORE THAN WHATS DUE, VOIDS, ETC.      Here's the best part, after being told by manager this would be resolved (currently rent plus another separate 200$ charge is being dealt with)  ....well it has not been, manager unavailable, etc.  Keep reading...when front desk is told by customer they have not been granted permission to charge whatever whenever to customer card, customer is handed a printout of some of actual transactions shown in system... incomplete, probably due to search parameters by front desk.....BUT printout also contains different customer's information also .....(search done by last 4 digits of credit card)  ....information includes other customer name, dates, and 8 of 16 digits of other customers credit card. (not to worry, we are honest)   WOW, but to be fair, will try to talk to manager again tomorrow, have locked credit card, (huge inconvenience) to protect unauthorized use by motel so will repost progress as it happens.  wish us luck.  BTW ...usual procedure is to pay a visit to front desk when our rent is due and handle payment in that manner, the way ALL OTHER MOTELS handle those of us who work out on the road, until job is done, rent week to week, being honest, no other motel has ever done this to us.  We not only have unauthorized transactions but additional transactions for ??? besides rent.  I have never been late paying my rent, what is the deal?  How do they figure it is ok, knowing I will be staying another week and will be down to pay rent when it comes due, to just bring up my card info and charge to it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r577363593-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>577363593</t>
+  </si>
+  <si>
+    <t>05/02/2018</t>
+  </si>
+  <si>
+    <t>Stay far away!</t>
+  </si>
+  <si>
+    <t>This is a Choice Hotel. This is really a bad choice! It sits next to a gas station and a shabby casino. There are homeless people in the parking lot. The Hotel has up to 8 or 9 people in some rooms. This is also housing for those without a place to live. The rooms smell of cigarettes and are very old. Do yourself a favor don't book with choice hotels. Their customer service is terrible and won't help you with anything.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r555731882-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>555731882</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>My birthday weekend!</t>
+  </si>
+  <si>
+    <t>This was my second stay at this location. No problem.  Did our usual Clorox wipes wipe down. The carpet in the room needs some major attention so I didn't even walk around in my socks. There was a line when I arrived for check in. I waited while Trey took care of the couple and the gentleman ahead of me. I  have him my ID and credit card and told him I  was checking in. He asked if I had a reservation. I said yes and then he answered the phone. I stood there and waited while he had a nice conversation wirh a lady who was calling to get some room rates but wasn't goibg to book at this time because she was just getting rates right now. Her sister was staying and yes she and the family checked in yesterday. Once he ended this call. He asked me again, do you have a reservation? I thought to myself, what pitiful customer service compared to the last time I was here. I was a bit taken aback. I will stay here again. It's a great location, quiet, clean and a good value.  MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This was my second stay at this location. No problem.  Did our usual Clorox wipes wipe down. The carpet in the room needs some major attention so I didn't even walk around in my socks. There was a line when I arrived for check in. I waited while Trey took care of the couple and the gentleman ahead of me. I  have him my ID and credit card and told him I  was checking in. He asked if I had a reservation. I said yes and then he answered the phone. I stood there and waited while he had a nice conversation wirh a lady who was calling to get some room rates but wasn't goibg to book at this time because she was just getting rates right now. Her sister was staying and yes she and the family checked in yesterday. Once he ended this call. He asked me again, do you have a reservation? I thought to myself, what pitiful customer service compared to the last time I was here. I was a bit taken aback. I will stay here again. It's a great location, quiet, clean and a good value.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r551273468-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>551273468</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>The stay was ok...room smelled like Crawfish...the front desk people were nice but overwhelmed with their jobs....the room was big and the bed was nice...overall nothing special about it, the place was ok.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r511976174-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>511976174</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>Nice staff and great price</t>
+  </si>
+  <si>
+    <t>This is my go to place when I travel to New Orleans for work. It's clean and quiet. The two front desk girls are super accommodating and friendly. There is a fitness center, laundry, business center. There is also a convenience store adjacent to the property.It has some really good restaurants nearby. Just ask the front desk for a recommendation. There are also many retail stores down the road which makes it convenient when traveling if you need to pickup something.If you like andouille there is Jacob's World Famous Andouille nearby. Worth the stop.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r496505281-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>496505281</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>A short but excellent stay</t>
+  </si>
+  <si>
+    <t>We stayed a couple nights passing through the area. Beds were great staff was friendly. We had to swap towels at the desk but that was explained as this was an extended stay hotel. Not a big issue for us.Stayed with other Choice properties before, tgis place far exceeded expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Suburban199, Manager at Suburban Extended Stay, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>We stayed a couple nights passing through the area. Beds were great staff was friendly. We had to swap towels at the desk but that was explained as this was an extended stay hotel. Not a big issue for us.Stayed with other Choice properties before, tgis place far exceeded expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r484797745-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>484797745</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Right price in the right place.</t>
+  </si>
+  <si>
+    <t>Normally, I don't book extended stay hotel rooms if I'm only going to be there for one night but this fit into our budget and location so we decided to stay. We were not disappointed. We had reservations, they were expecting us and check in was easy. I was little concerned about the noise level when I saw the property was between two interstates but my concerns were unfounded. We didn't hear much highway noise at all. beds were comfortable, flat screen TV, the refrigerator wasn't the small ones found in most motel rooms but quite a bit larger, 2 burner stove, coffee maker, microwave, sink, desk with 2 desk chairs and an upholstered chair. There is a Huddle House restaurant and gas station on the same drive as the hotel but we didn't stop at either one. This property seemed to cater to the construction or railroad crews but we never felt unsafe at all. The one complaint we did have about our stay was the walls seemed very thin. A few guys from a work crew had gathered in the room next to ours and we could hear almost every word they said. My daughter was afraid it would go on like that for most of the night but by 10 pm, all we heard from that room was snoring. If you are a light sleeper, it's not the most quiet place but, by the same token, anything...Normally, I don't book extended stay hotel rooms if I'm only going to be there for one night but this fit into our budget and location so we decided to stay. We were not disappointed. We had reservations, they were expecting us and check in was easy. I was little concerned about the noise level when I saw the property was between two interstates but my concerns were unfounded. We didn't hear much highway noise at all. beds were comfortable, flat screen TV, the refrigerator wasn't the small ones found in most motel rooms but quite a bit larger, 2 burner stove, coffee maker, microwave, sink, desk with 2 desk chairs and an upholstered chair. There is a Huddle House restaurant and gas station on the same drive as the hotel but we didn't stop at either one. This property seemed to cater to the construction or railroad crews but we never felt unsafe at all. The one complaint we did have about our stay was the walls seemed very thin. A few guys from a work crew had gathered in the room next to ours and we could hear almost every word they said. My daughter was afraid it would go on like that for most of the night but by 10 pm, all we heard from that room was snoring. If you are a light sleeper, it's not the most quiet place but, by the same token, anything we said would've also been heard by the adjoining rooms. I highly recommend some sound proofing be added to the walls during any renovations that may be planned. I would have no problem staying here in the future or recommending it to others as long as they aren't a light sleeper.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Normally, I don't book extended stay hotel rooms if I'm only going to be there for one night but this fit into our budget and location so we decided to stay. We were not disappointed. We had reservations, they were expecting us and check in was easy. I was little concerned about the noise level when I saw the property was between two interstates but my concerns were unfounded. We didn't hear much highway noise at all. beds were comfortable, flat screen TV, the refrigerator wasn't the small ones found in most motel rooms but quite a bit larger, 2 burner stove, coffee maker, microwave, sink, desk with 2 desk chairs and an upholstered chair. There is a Huddle House restaurant and gas station on the same drive as the hotel but we didn't stop at either one. This property seemed to cater to the construction or railroad crews but we never felt unsafe at all. The one complaint we did have about our stay was the walls seemed very thin. A few guys from a work crew had gathered in the room next to ours and we could hear almost every word they said. My daughter was afraid it would go on like that for most of the night but by 10 pm, all we heard from that room was snoring. If you are a light sleeper, it's not the most quiet place but, by the same token, anything...Normally, I don't book extended stay hotel rooms if I'm only going to be there for one night but this fit into our budget and location so we decided to stay. We were not disappointed. We had reservations, they were expecting us and check in was easy. I was little concerned about the noise level when I saw the property was between two interstates but my concerns were unfounded. We didn't hear much highway noise at all. beds were comfortable, flat screen TV, the refrigerator wasn't the small ones found in most motel rooms but quite a bit larger, 2 burner stove, coffee maker, microwave, sink, desk with 2 desk chairs and an upholstered chair. There is a Huddle House restaurant and gas station on the same drive as the hotel but we didn't stop at either one. This property seemed to cater to the construction or railroad crews but we never felt unsafe at all. The one complaint we did have about our stay was the walls seemed very thin. A few guys from a work crew had gathered in the room next to ours and we could hear almost every word they said. My daughter was afraid it would go on like that for most of the night but by 10 pm, all we heard from that room was snoring. If you are a light sleeper, it's not the most quiet place but, by the same token, anything we said would've also been heard by the adjoining rooms. I highly recommend some sound proofing be added to the walls during any renovations that may be planned. I would have no problem staying here in the future or recommending it to others as long as they aren't a light sleeper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r483290908-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>483290908</t>
+  </si>
+  <si>
+    <t>05/10/2017</t>
+  </si>
+  <si>
+    <t>Great Staff! Nice ROOMS.</t>
+  </si>
+  <si>
+    <t>Loved my stay here. such friendly people that work there. Front Desk girl we checked in with Brooke was awesome! she helped us with directions and printed directions out for us. sweet girl she has such a pretty smile! Housekeeping was friendly and always helpful when i needed something. the night girl Carely is such a sweet thing, I would defiantly recommend and will be going back for future stays. Rooms are very big clean and love the kitchens they have!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r478856711-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>478856711</t>
+  </si>
+  <si>
+    <t>04/25/2017</t>
+  </si>
+  <si>
+    <t>WORST CUSTOMER SERVICE EVER</t>
+  </si>
+  <si>
+    <t>My advice would be DO NOT BOOK THIS HOTEL! If you have no other choice, then you need to call and book it directly and even then I’m not sure you’ll be guaranteed a room. 
+We arrived at this hotel after being on the road for more than 12 hours, so needless to say we were ready to get checked in and relax. I went in to check in and gave the lady my credit card and id and she said “oh, I have a letter for you”. At first I thought it was just a welcome letter or a message that a friend had left for me upon checking in. As I started reading it she said “this happens sometimes when you use third party sites” and then I read enough to see that it was telling me that my reservation had been cancelled.  I told her that I had never heard of any hotel doing this and was confused because it mentioned Expedia.com and other such websites, but I had made my reservation at choicehotels.com and that shouldn’t be considered a third party website. She said that it was, that they just contract with Choice Hotels to use the name but don’t really have to accept reservations made on the website. I was appalled by all of this especially since she was smiling and acting like it was no big deal, as if I should just gladly take...My advice would be DO NOT BOOK THIS HOTEL! If you have no other choice, then you need to call and book it directly and even then I’m not sure you’ll be guaranteed a room. We arrived at this hotel after being on the road for more than 12 hours, so needless to say we were ready to get checked in and relax. I went in to check in and gave the lady my credit card and id and she said “oh, I have a letter for you”. At first I thought it was just a welcome letter or a message that a friend had left for me upon checking in. As I started reading it she said “this happens sometimes when you use third party sites” and then I read enough to see that it was telling me that my reservation had been cancelled.  I told her that I had never heard of any hotel doing this and was confused because it mentioned Expedia.com and other such websites, but I had made my reservation at choicehotels.com and that shouldn’t be considered a third party website. She said that it was, that they just contract with Choice Hotels to use the name but don’t really have to accept reservations made on the website. I was appalled by all of this especially since she was smiling and acting like it was no big deal, as if I should just gladly take the letter and turn around and leave without questioning it. She even showed me a stack of about 15 other letters that she would be giving out and said “see you aren’t the only one, I have all these to give out too”.  I’m not sure why she thought this would make it easier to deal with, but it didn’t. She wasn’t even going to bother to help us find another location but I basically just kept standing there until she could give me some names of places in the area that we could contact to see if there was a vacancy. Eventually she did call a nearby hotel but it was almost $200 for the night, certainly not what we had budgeted into our vacation. I had reserved this room using 6000 points and $15 cash. And, by the way, the $15 was charged to my credit card and has not been refunded. So, after realizing that she was going to be no help whatsoever I went to the car, got on my phone and was able to find an available room at a nearby Quality Inn using 10,000 points. This was more than the original room but at least I was able to use points instead of spending additional money.  Personally, I feel as if the hotel should have found us a room somewhere else and paid anything over the amount I had agreed to. I don’t feel as if I should have been forced to use the additional points at another location even though I was thankful that we didn’t have to spend additional cash. There were several festivals in the area that weekend so most hotels were sold out and we were too tired to drive any further in search of a place to stay the night. Furthermore, they had to know earlier in the day, if not sooner, that they were overbooked. So, someone from the hotel could have called or texted during the day and we could have looked for vacancies along our route. Instead, they chose the least amount of interest possible in providing good customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>My advice would be DO NOT BOOK THIS HOTEL! If you have no other choice, then you need to call and book it directly and even then I’m not sure you’ll be guaranteed a room. 
+We arrived at this hotel after being on the road for more than 12 hours, so needless to say we were ready to get checked in and relax. I went in to check in and gave the lady my credit card and id and she said “oh, I have a letter for you”. At first I thought it was just a welcome letter or a message that a friend had left for me upon checking in. As I started reading it she said “this happens sometimes when you use third party sites” and then I read enough to see that it was telling me that my reservation had been cancelled.  I told her that I had never heard of any hotel doing this and was confused because it mentioned Expedia.com and other such websites, but I had made my reservation at choicehotels.com and that shouldn’t be considered a third party website. She said that it was, that they just contract with Choice Hotels to use the name but don’t really have to accept reservations made on the website. I was appalled by all of this especially since she was smiling and acting like it was no big deal, as if I should just gladly take...My advice would be DO NOT BOOK THIS HOTEL! If you have no other choice, then you need to call and book it directly and even then I’m not sure you’ll be guaranteed a room. We arrived at this hotel after being on the road for more than 12 hours, so needless to say we were ready to get checked in and relax. I went in to check in and gave the lady my credit card and id and she said “oh, I have a letter for you”. At first I thought it was just a welcome letter or a message that a friend had left for me upon checking in. As I started reading it she said “this happens sometimes when you use third party sites” and then I read enough to see that it was telling me that my reservation had been cancelled.  I told her that I had never heard of any hotel doing this and was confused because it mentioned Expedia.com and other such websites, but I had made my reservation at choicehotels.com and that shouldn’t be considered a third party website. She said that it was, that they just contract with Choice Hotels to use the name but don’t really have to accept reservations made on the website. I was appalled by all of this especially since she was smiling and acting like it was no big deal, as if I should just gladly take the letter and turn around and leave without questioning it. She even showed me a stack of about 15 other letters that she would be giving out and said “see you aren’t the only one, I have all these to give out too”.  I’m not sure why she thought this would make it easier to deal with, but it didn’t. She wasn’t even going to bother to help us find another location but I basically just kept standing there until she could give me some names of places in the area that we could contact to see if there was a vacancy. Eventually she did call a nearby hotel but it was almost $200 for the night, certainly not what we had budgeted into our vacation. I had reserved this room using 6000 points and $15 cash. And, by the way, the $15 was charged to my credit card and has not been refunded. So, after realizing that she was going to be no help whatsoever I went to the car, got on my phone and was able to find an available room at a nearby Quality Inn using 10,000 points. This was more than the original room but at least I was able to use points instead of spending additional money.  Personally, I feel as if the hotel should have found us a room somewhere else and paid anything over the amount I had agreed to. I don’t feel as if I should have been forced to use the additional points at another location even though I was thankful that we didn’t have to spend additional cash. There were several festivals in the area that weekend so most hotels were sold out and we were too tired to drive any further in search of a place to stay the night. Furthermore, they had to know earlier in the day, if not sooner, that they were overbooked. So, someone from the hotel could have called or texted during the day and we could have looked for vacancies along our route. Instead, they chose the least amount of interest possible in providing good customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r468661994-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>468661994</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Terrible. Don't stay here!</t>
+  </si>
+  <si>
+    <t>On arrival, we requested a new room because there was urine on the toilet and chips under the covers. The room was dirty after apparently having been "cleaned." I had to call the front desk from my cellular phone because the room phone did not work. In the second room, there was a bug in the tub and mold in the shower. The fridge leaked water on the inside. Because we complained about the smell of the room, the attendant gave us a spray to deodorize the room. I was so irritated after getting my daughter and I in our bathing suits, all excited, swiping our card on the pool door, just to be told by the front attendant that the pool was closed for maintenance and wouldn't be open for weeks. No sign anywhere said "Closed". 3 separate people were ahead of us in line complaining about the lack of cleanliness in their rooms. The 2 trash cans on both sides of the entrance door were both overflowing with garbage, while the housekeepers set right across from them on the curb. Like wow. Would never ever go backMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>On arrival, we requested a new room because there was urine on the toilet and chips under the covers. The room was dirty after apparently having been "cleaned." I had to call the front desk from my cellular phone because the room phone did not work. In the second room, there was a bug in the tub and mold in the shower. The fridge leaked water on the inside. Because we complained about the smell of the room, the attendant gave us a spray to deodorize the room. I was so irritated after getting my daughter and I in our bathing suits, all excited, swiping our card on the pool door, just to be told by the front attendant that the pool was closed for maintenance and wouldn't be open for weeks. No sign anywhere said "Closed". 3 separate people were ahead of us in line complaining about the lack of cleanliness in their rooms. The 2 trash cans on both sides of the entrance door were both overflowing with garbage, while the housekeepers set right across from them on the curb. Like wow. Would never ever go backMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r463339536-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>463339536</t>
+  </si>
+  <si>
+    <t>02/27/2017</t>
+  </si>
+  <si>
+    <t>Got the job done!</t>
+  </si>
+  <si>
+    <t>My stay was exactly what I expected. I was looking to stay for All-Star weekend but the hotels in the downtown area were ridiculously overpriced. I settled on this location based on pricing and distance wasn't too far from the french quarter. The staff was very friendly and helpful. The hotel was clean and quiet. The location was great as its only a 15-20 minutes drive to the heart of downtown. I would definitely recommend to anybody looking for a budget hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>My stay was exactly what I expected. I was looking to stay for All-Star weekend but the hotels in the downtown area were ridiculously overpriced. I settled on this location based on pricing and distance wasn't too far from the french quarter. The staff was very friendly and helpful. The hotel was clean and quiet. The location was great as its only a 15-20 minutes drive to the heart of downtown. I would definitely recommend to anybody looking for a budget hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r462938709-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>462938709</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>HOTEL HELL</t>
+  </si>
+  <si>
+    <t>First of all let me start by saying Latoya you are an asset to Choice hotels.  Your poise, ability to stay calm and make executive decisions was exemplary.  Brooke, you are horrible, rude and need to find a different job where you never interact with anyone.NOTICE: If you are booking a room through Expedia, Hotela.com be aware that their systems don't always communicate with the hotel causing you to think you paid and registered and it not being given the case.  The line was out the door for double bookings and those who had driven for hours only to find out their name wasn't even in the system.  Latoya, was the ONLY employee on site on Mardi Gras weekend (front desk, engineering, housekeeping, security).  She single handedly registered, cleaned rooms left fifty at 3pm, and accommodated as many as she could without breaking a sweat.  There were people in line just to take dirty rooms.  SHANE ON YOU CHOICE HOTELS.  I want my money back, I want a change in staffing and I want a raise and site promotion for Latoya and I want BROOKE Fired!MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all let me start by saying Latoya you are an asset to Choice hotels.  Your poise, ability to stay calm and make executive decisions was exemplary.  Brooke, you are horrible, rude and need to find a different job where you never interact with anyone.NOTICE: If you are booking a room through Expedia, Hotela.com be aware that their systems don't always communicate with the hotel causing you to think you paid and registered and it not being given the case.  The line was out the door for double bookings and those who had driven for hours only to find out their name wasn't even in the system.  Latoya, was the ONLY employee on site on Mardi Gras weekend (front desk, engineering, housekeeping, security).  She single handedly registered, cleaned rooms left fifty at 3pm, and accommodated as many as she could without breaking a sweat.  There were people in line just to take dirty rooms.  SHANE ON YOU CHOICE HOTELS.  I want my money back, I want a change in staffing and I want a raise and site promotion for Latoya and I want BROOKE Fired!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r442619310-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>442619310</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Awful!</t>
+  </si>
+  <si>
+    <t>Very disappointed! Not at all the quality it has been in the past.  Seems to be lacking good leadership/management.  The rooms are not thoroughly cleaned for start.  Upon arriving there was something obviously spilled down the cabinets and molded coffee grounds in the coffee pot.  My husband was staying a couple of weeks for his employer and opted to pay the $5 a day to have housecleaning come in. They didn't come daily and when they did you never felt as if the room was clean. The room was a non smoking room but the room and hallway reeked of smoke.  The front desk while trying to be helpful was limited to what she can do from what it seems to be a lack of organization and rules.  Every other day we would have to go to the front desk to get our keys working. Very frustrating.  The hotel has so much potential with the spacious rooms and location.  The outside is clean and very inviting.  But the inside needs some updating (hall walls patched but not painted?) and there is a definite lack of management.  Its sad to see this place in the state its in now.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Very disappointed! Not at all the quality it has been in the past.  Seems to be lacking good leadership/management.  The rooms are not thoroughly cleaned for start.  Upon arriving there was something obviously spilled down the cabinets and molded coffee grounds in the coffee pot.  My husband was staying a couple of weeks for his employer and opted to pay the $5 a day to have housecleaning come in. They didn't come daily and when they did you never felt as if the room was clean. The room was a non smoking room but the room and hallway reeked of smoke.  The front desk while trying to be helpful was limited to what she can do from what it seems to be a lack of organization and rules.  Every other day we would have to go to the front desk to get our keys working. Very frustrating.  The hotel has so much potential with the spacious rooms and location.  The outside is clean and very inviting.  But the inside needs some updating (hall walls patched but not painted?) and there is a definite lack of management.  Its sad to see this place in the state its in now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r422535742-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>422535742</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Suburban extended stay</t>
+  </si>
+  <si>
+    <t>Excepting to relax in your pool! Was very disappointed! Look like it has never been cleaned! Trash bin inside hotel over loaded! Was told was taken care off! Days later same!parking area trashy! Trash can over filled! Hotel needs sweeping and cleaning!</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r422239337-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>422239337</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel and will steal your money!</t>
+  </si>
+  <si>
+    <t>My husband booked this hotel for us for a week as it had fair reviews. He paid cash(I know-) When we received our room it was horrible. There was black mold and trash. The sheets were clean but we saw evidence of cockroaches and mice. We went to the front desk and told them we wanted to check out the next morning and would be happy to pay the nominal early checkout fee. We were told no worries, but that they couldn't refund cash and that a check would be sent within 10 business days. A month went by and we called to ask the manager about the refund and were told it was in the mail. This was their response for the next month and a half. I then called choice hotels customer care, as they are affiliated. They tried as well and we are still waiting for our refund months later. We have been told money goes missing here by management and they are constantly going through management changes. The owner obviously doesn't care about right and wrong and just wants to make a buck even if that means not giving people back their hard earned money. I have seen several posts from others who have had the same problem. Do yourself a favor and go over to the Best Western, there's a free breakfast and friendly competent staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>My husband booked this hotel for us for a week as it had fair reviews. He paid cash(I know-) When we received our room it was horrible. There was black mold and trash. The sheets were clean but we saw evidence of cockroaches and mice. We went to the front desk and told them we wanted to check out the next morning and would be happy to pay the nominal early checkout fee. We were told no worries, but that they couldn't refund cash and that a check would be sent within 10 business days. A month went by and we called to ask the manager about the refund and were told it was in the mail. This was their response for the next month and a half. I then called choice hotels customer care, as they are affiliated. They tried as well and we are still waiting for our refund months later. We have been told money goes missing here by management and they are constantly going through management changes. The owner obviously doesn't care about right and wrong and just wants to make a buck even if that means not giving people back their hard earned money. I have seen several posts from others who have had the same problem. Do yourself a favor and go over to the Best Western, there's a free breakfast and friendly competent staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r420914597-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>420914597</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Worse experience ever</t>
+  </si>
+  <si>
+    <t>First I checked in a girl name Brooke was so rude at check in. So I tried to not let them ruin my day. We get in the room everything was find until night time i went to the restroom and a mice ran across my foot at that point was to so done with this hotel we was just ready to go we left that night and Brooke was at the front desk again I told her whar happened and she just did not care at all I will never go to this hotel again and wouldn't recommend It to anyone.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r419170444-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>419170444</t>
+  </si>
+  <si>
+    <t>09/16/2016</t>
+  </si>
+  <si>
+    <t>Ponchatoula Flood</t>
+  </si>
+  <si>
+    <t>My brother's large family lost everything in the Ponchatoula flood. My house wasn't big enough for all so I called around and decided Laplace was a good "central point" between my home and theirs. They needed a comfortable place to stay while their home is being repaired, so I put them up for 2 weeks. The rate was reasonable, although I wish it would have been a bit lower. My sister was happy with her room and the children told me they felt "safe" in theirs. My sister-in-law, who is picky, was even satisfied with everything! I didn't mind paying for it because the rooms were clean and the staff was accommodating. One lady at the front desk could have been a little friendlier, but perhaps she was just busy or having a bad day. The hotel is located in a good place near a convenient store, gas station, and the Huddle House restaurant. If this flooding happens again, this is the first place I will call. Thank you...:)MoreShow less</t>
+  </si>
+  <si>
+    <t>My brother's large family lost everything in the Ponchatoula flood. My house wasn't big enough for all so I called around and decided Laplace was a good "central point" between my home and theirs. They needed a comfortable place to stay while their home is being repaired, so I put them up for 2 weeks. The rate was reasonable, although I wish it would have been a bit lower. My sister was happy with her room and the children told me they felt "safe" in theirs. My sister-in-law, who is picky, was even satisfied with everything! I didn't mind paying for it because the rooms were clean and the staff was accommodating. One lady at the front desk could have been a little friendlier, but perhaps she was just busy or having a bad day. The hotel is located in a good place near a convenient store, gas station, and the Huddle House restaurant. If this flooding happens again, this is the first place I will call. Thank you...:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r405908588-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>405908588</t>
+  </si>
+  <si>
+    <t>08/15/2016</t>
+  </si>
+  <si>
+    <t>Baton Rouge Flood</t>
+  </si>
+  <si>
+    <t>My visit at this property started off well. We had no complaints and no one tried to contact us. (I will assume this was because the phone in our room did not work) The hotel was full of kids due to the recent floods and several families being displaced. With that being said, we did not choose this hotel because we wanted to, we basically had no other options and needed a safe place. I called Monday morning to extend my stay just one more night. I was appalled by the front desk lady's attitude towards me and my child. Now I must admit traveling with a toddler is never easy , and this stay was no exception. I accept personal responsibility for everything my child did and I tried my best to stop it as it happened. When I asked for an additional night the lady's response to me in a VERY UGLY way was "I will extend your stay 1 more night BUT I have had several complaints from people around you. I have guest that work and it is not acceptable and if I get any other complaints you will be put off the property!!" I explained to her there's several kids and mine was not the only one. A kid ran into my room and the dad ran in behind her. She then says she will address everyone around me. Well my sister was in the...My visit at this property started off well. We had no complaints and no one tried to contact us. (I will assume this was because the phone in our room did not work) The hotel was full of kids due to the recent floods and several families being displaced. With that being said, we did not choose this hotel because we wanted to, we basically had no other options and needed a safe place. I called Monday morning to extend my stay just one more night. I was appalled by the front desk lady's attitude towards me and my child. Now I must admit traveling with a toddler is never easy , and this stay was no exception. I accept personal responsibility for everything my child did and I tried my best to stop it as it happened. When I asked for an additional night the lady's response to me in a VERY UGLY way was "I will extend your stay 1 more night BUT I have had several complaints from people around you. I have guest that work and it is not acceptable and if I get any other complaints you will be put off the property!!" I explained to her there's several kids and mine was not the only one. A kid ran into my room and the dad ran in behind her. She then says she will address everyone around me. Well my sister was in the room right next door to mines with her kids and she was not addressed at all.  She canceled her additional night as well.  I do not expect any explanations for her attitude and nor do I want one. I canceled my additional night and packed up my family. I have never stayed at a suburban extended stay hotel and will never again. All hotels were booked between Baton Rouge and Laplace so this was my last option.  Next time I'll know to keep going whenever I see Suburban Extended Stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>My visit at this property started off well. We had no complaints and no one tried to contact us. (I will assume this was because the phone in our room did not work) The hotel was full of kids due to the recent floods and several families being displaced. With that being said, we did not choose this hotel because we wanted to, we basically had no other options and needed a safe place. I called Monday morning to extend my stay just one more night. I was appalled by the front desk lady's attitude towards me and my child. Now I must admit traveling with a toddler is never easy , and this stay was no exception. I accept personal responsibility for everything my child did and I tried my best to stop it as it happened. When I asked for an additional night the lady's response to me in a VERY UGLY way was "I will extend your stay 1 more night BUT I have had several complaints from people around you. I have guest that work and it is not acceptable and if I get any other complaints you will be put off the property!!" I explained to her there's several kids and mine was not the only one. A kid ran into my room and the dad ran in behind her. She then says she will address everyone around me. Well my sister was in the...My visit at this property started off well. We had no complaints and no one tried to contact us. (I will assume this was because the phone in our room did not work) The hotel was full of kids due to the recent floods and several families being displaced. With that being said, we did not choose this hotel because we wanted to, we basically had no other options and needed a safe place. I called Monday morning to extend my stay just one more night. I was appalled by the front desk lady's attitude towards me and my child. Now I must admit traveling with a toddler is never easy , and this stay was no exception. I accept personal responsibility for everything my child did and I tried my best to stop it as it happened. When I asked for an additional night the lady's response to me in a VERY UGLY way was "I will extend your stay 1 more night BUT I have had several complaints from people around you. I have guest that work and it is not acceptable and if I get any other complaints you will be put off the property!!" I explained to her there's several kids and mine was not the only one. A kid ran into my room and the dad ran in behind her. She then says she will address everyone around me. Well my sister was in the room right next door to mines with her kids and she was not addressed at all.  She canceled her additional night as well.  I do not expect any explanations for her attitude and nor do I want one. I canceled my additional night and packed up my family. I have never stayed at a suburban extended stay hotel and will never again. All hotels were booked between Baton Rouge and Laplace so this was my last option.  Next time I'll know to keep going whenever I see Suburban Extended Stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r405228777-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>405228777</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Great room, comfortable bed</t>
+  </si>
+  <si>
+    <t>Our room had a ton of space, it was clean, and comfortable. The sofas are nice to relax on after being on our feet all day, and the jacuzzi in the room was a well needed bonus. Also, right next door to huddle house for breakfasts. Highly recommended stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r386456650-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>386456650</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>STAFF'S HOSPITALITY AND WARMTH AT ITS BEST!</t>
+  </si>
+  <si>
+    <t>LINDA, YOU were an ANGEL sent to us after a horrible ordeal with another facility. Your sincere smile and warmth soothes tired,achy bodies after long trips. My family and I thank you for all your warmth and attentiveness to our needs during our stay. YOU made us feel so welcome in your "home". The room was spacious to keep every member of our family comfortable. Clean rooms and ice machines,laundry and dryer well kept and functional. QUIET and safe and well lit surrounding that ensures more restful nights. Friendly staff with warm welcoming smiles throughout the day! WE will surely be back to  visit your "home" soon.------JENN B.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r385935092-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>385935092</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable </t>
+  </si>
+  <si>
+    <t>We called the front desk at about 11pm to see if there was availability. Linda answered all if our questions and greeted us with a smile...nice after driving a long way! Rooms were clean and comfortable and included a regular fridge, coffee pot, microwave, cooktop, silverware, cups, plates...everything you need to make a meal. We will definitely stay at this line of hotels again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r385256888-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>385256888</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>memorial weekend vacation</t>
+  </si>
+  <si>
+    <t>The room was very clean. People very nice. Linda was our hotel receptionist and she was very nice.There is casino right behind the hotel if you like to go to the casino. There is the gas station near the hotel you can go there by walk in case you need something from the gas station.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r381333568-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>381333568</t>
+  </si>
+  <si>
+    <t>06/10/2016</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Stayed here for the first time in June. Had a small problem with the room, and Linda took care of the problem immediately. Clean rooms, very efficient, friendly, and helpful staff, overall a great experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r376742643-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>376742643</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Business trip convenience</t>
+  </si>
+  <si>
+    <t>I was in the area for business.  Great location.  Easy access off I-10. Spacious room. I did not notice the road noise from the interstate. The desk attendant, Linda, was very nice and helpful when I to reset my key card.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandon H, General Manager at Suburban Extended Stay, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>I was in the area for business.  Great location.  Easy access off I-10. Spacious room. I did not notice the road noise from the interstate. The desk attendant, Linda, was very nice and helpful when I to reset my key card.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r374980376-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>374980376</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>Buisness trip</t>
+  </si>
+  <si>
+    <t>I have to say i was very pleased with the stay and the Friendly Staff!! Mrs. Linda was a very sweet person, she made everything so easy for our stay!! Would definately tell anyone this is the best hotel i have ever stayed at!! Clean and Neat Rooms, awesome wifi, and awesome pool area!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandon H, General Manager at Suburban Extended Stay, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>I have to say i was very pleased with the stay and the Friendly Staff!! Mrs. Linda was a very sweet person, she made everything so easy for our stay!! Would definately tell anyone this is the best hotel i have ever stayed at!! Clean and Neat Rooms, awesome wifi, and awesome pool area!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r373419832-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>373419832</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Tried a Different Hotel for a Change</t>
+  </si>
+  <si>
+    <t>Very nice stay-very convenient location right off the interstate. Clean rooms and bathrooms with plenty of clean towels and very comfortable bed. The staff was very helpful and friendly.  Really enjoyed the size of the room-plenty of space to enjoy my new grandson!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandon H, General Manager at Suburban Extended Stay, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Very nice stay-very convenient location right off the interstate. Clean rooms and bathrooms with plenty of clean towels and very comfortable bed. The staff was very helpful and friendly.  Really enjoyed the size of the room-plenty of space to enjoy my new grandson!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r372695135-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>372695135</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>POOR CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>As a business owner myself I would be appalled if any of the workers at Suburban Extended Stay La Place were employed by me. I vacation in New Orleans in March. My family an d I booked a suite for 6 days. the weather decided to take a turn for the worst so we checked out early and headed home. An 1100 mile drive to Cleveland Ohio. Anyhow, at checkout I was informed that my refund for checking out early would arrive in the mail in a check. I paid cash so it did not make sense but ok I understand company policy. It has been over 5 weeks and I still have not received the refund check, now I cant get a return phone call from the General Manager. I am consistently told he is in a meeting but I can leave a voicemail. One one occassion I was told by the desk associate Ramona the "its not like I have the owners personal number, I just work here". I clearly heard the manager say omg not this woman again.. What?!? Still waiting for my refund.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>As a business owner myself I would be appalled if any of the workers at Suburban Extended Stay La Place were employed by me. I vacation in New Orleans in March. My family an d I booked a suite for 6 days. the weather decided to take a turn for the worst so we checked out early and headed home. An 1100 mile drive to Cleveland Ohio. Anyhow, at checkout I was informed that my refund for checking out early would arrive in the mail in a check. I paid cash so it did not make sense but ok I understand company policy. It has been over 5 weeks and I still have not received the refund check, now I cant get a return phone call from the General Manager. I am consistently told he is in a meeting but I can leave a voicemail. One one occassion I was told by the desk associate Ramona the "its not like I have the owners personal number, I just work here". I clearly heard the manager say omg not this woman again.. What?!? Still waiting for my refund.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r365903715-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>365903715</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>HOTEL STAY</t>
+  </si>
+  <si>
+    <t>My overall review of my stays are pleasant. Very sweet front desk cleark named Heather.she helped me with a variety of things that I needed while staying at SUBURBAN HOTEL. Very friendly guest and beautiful scenery. Nice employees VERY helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Brandon H, General Manager at Suburban Extended Stay, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>My overall review of my stays are pleasant. Very sweet front desk cleark named Heather.she helped me with a variety of things that I needed while staying at SUBURBAN HOTEL. Very friendly guest and beautiful scenery. Nice employees VERY helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r362170787-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>362170787</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Rip off</t>
+  </si>
+  <si>
+    <t>My husband stayed at this hotel last night and paid cash for his room they took my credit card info in case there was any damage... I checked my bank and they charged my card for the room I paid cash for.... Called them today they told me it should be credited back in 7 days.... Why should my 123.00 be tied up up because of there stupid mistake.  I wouldn't stay here again, my card should not of been charged. Very unhappy customer!!!!'MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandon H, General Manager at Suburban Extended Stay, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>My husband stayed at this hotel last night and paid cash for his room they took my credit card info in case there was any damage... I checked my bank and they charged my card for the room I paid cash for.... Called them today they told me it should be credited back in 7 days.... Why should my 123.00 be tied up up because of there stupid mistake.  I wouldn't stay here again, my card should not of been charged. Very unhappy customer!!!!'More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r357890360-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>357890360</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Very impressed!</t>
+  </si>
+  <si>
+    <t>The husband and I stayed here because we had an early flight the next morning and we was very pleased.  The lady at the front was very friendly. The room was very nice and large in size.  Clean and comfy rooms!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Brandon H, General Manager at Suburban Extended Stay, responded to this reviewResponded March 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2016</t>
+  </si>
+  <si>
+    <t>The husband and I stayed here because we had an early flight the next morning and we was very pleased.  The lady at the front was very friendly. The room was very nice and large in size.  Clean and comfy rooms!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r345996459-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>345996459</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Mardi Gras weekend!</t>
+  </si>
+  <si>
+    <t>This hotel totally exceeded our expectations!  The ladies at the front desk were very friendly. The check in process was smooth. The room was quite large and it was very clean. When I complimented Carmen, the housekeeper, she assured me that she "was just doing her  job". I have stayed in many hotels and this was the first where the baseboards  in the room and bathroom were clean. She went above and beyond. This is our spot for Mardi Gras from now on!  It was well worth the cost. Clean, we felt safe with a nice size fridge,  stove, microwave,  dishes, cookware,dish towels, glassware, etc..MoreShow less</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded February 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2016</t>
+  </si>
+  <si>
+    <t>This hotel totally exceeded our expectations!  The ladies at the front desk were very friendly. The check in process was smooth. The room was quite large and it was very clean. When I complimented Carmen, the housekeeper, she assured me that she "was just doing her  job". I have stayed in many hotels and this was the first where the baseboards  in the room and bathroom were clean. She went above and beyond. This is our spot for Mardi Gras from now on!  It was well worth the cost. Clean, we felt safe with a nice size fridge,  stove, microwave,  dishes, cookware,dish towels, glassware, etc..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r344315912-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>344315912</t>
+  </si>
+  <si>
+    <t>02/01/2016</t>
+  </si>
+  <si>
+    <t>Night B4 Cruise</t>
+  </si>
+  <si>
+    <t>We were looking for a clean affordable place to stay close to New Orleans.  This place fit the bill.  $72 a night.  It was clean and the front desk was manned by a friendly individual.  No breakfast, but we were heading to Cafe Du Monde for breakfast....no harm no foul.  We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We were looking for a clean affordable place to stay close to New Orleans.  This place fit the bill.  $72 a night.  It was clean and the front desk was manned by a friendly individual.  No breakfast, but we were heading to Cafe Du Monde for breakfast....no harm no foul.  We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r325535606-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>325535606</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>So very accommodating</t>
+  </si>
+  <si>
+    <t>The entire staff was pleasant. And catered to my every whim.ie scheduled room cleaning so as not to interfere with my schedule and sleeping times.fresh towels. Heather and Teri were extremely tolerant of me and my pesky roommate.will probably work here again in the near future and will definitely stay at suburban hotel againMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>The entire staff was pleasant. And catered to my every whim.ie scheduled room cleaning so as not to interfere with my schedule and sleeping times.fresh towels. Heather and Teri were extremely tolerant of me and my pesky roommate.will probably work here again in the near future and will definitely stay at suburban hotel againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r317552021-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>317552021</t>
+  </si>
+  <si>
+    <t>10/10/2015</t>
+  </si>
+  <si>
+    <t>A night away for peace and quiet</t>
+  </si>
+  <si>
+    <t>This hotel was just what we were looking for when we needed a night away from all the stress at home. We stayed in a suite it was kept very clean and the bed was so comfortable. The staff was excellent. I would definitely consider staying here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>This hotel was just what we were looking for when we needed a night away from all the stress at home. We stayed in a suite it was kept very clean and the bed was so comfortable. The staff was excellent. I would definitely consider staying here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r285997947-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>285997947</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Dirtiest shower curtain!</t>
+  </si>
+  <si>
+    <t>First, they tried to give us a different room instead of the type we reserved. Then, when we finally got a room, we found that the shower curtain--which is washable--was filthy with black mildew and dirt. The room was fairly clean otherwise, but the filthy shower curtain made it totally unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>First, they tried to give us a different room instead of the type we reserved. Then, when we finally got a room, we found that the shower curtain--which is washable--was filthy with black mildew and dirt. The room was fairly clean otherwise, but the filthy shower curtain made it totally unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r269417560-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>269417560</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Just like HOME</t>
+  </si>
+  <si>
+    <t>Good day fellow travelers I have to tell you about the Suburban Extended stay La Place. I've stayed a couple times and love it already. The hotel is clean and rooms are spacious with beds that are comfortable.  I especially like the kitchenette part of this extended stay cause there has been some I've stayed that did not have the dishes.  At check in the room has been clean from the dishes,floors and the restroom with plenty of towels.  The ac works great, wi-fi is free with a newer flatscreen tv.  It's right off the I10 and is close to Airline hwy where there is lots of shops and food places. The staff are professional and super friendly, from management down to maintenance. The hotel has been very quiet at night so its easy to get a good nights rest. They do have a swimming pool to enjoy. It's not to far from New Orleans or Baton Rouge just in case you don't like the hustle and bustle of the bigger cities like myself. I would like to give a thanks bunches to the staff at Suburban Extended stay La Place for making my stay fantastic and can't wait till next time!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded May 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2015</t>
+  </si>
+  <si>
+    <t>Good day fellow travelers I have to tell you about the Suburban Extended stay La Place. I've stayed a couple times and love it already. The hotel is clean and rooms are spacious with beds that are comfortable.  I especially like the kitchenette part of this extended stay cause there has been some I've stayed that did not have the dishes.  At check in the room has been clean from the dishes,floors and the restroom with plenty of towels.  The ac works great, wi-fi is free with a newer flatscreen tv.  It's right off the I10 and is close to Airline hwy where there is lots of shops and food places. The staff are professional and super friendly, from management down to maintenance. The hotel has been very quiet at night so its easy to get a good nights rest. They do have a swimming pool to enjoy. It's not to far from New Orleans or Baton Rouge just in case you don't like the hustle and bustle of the bigger cities like myself. I would like to give a thanks bunches to the staff at Suburban Extended stay La Place for making my stay fantastic and can't wait till next time!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r269321733-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>269321733</t>
+  </si>
+  <si>
+    <t>Your HOME Away From HOME</t>
+  </si>
+  <si>
+    <t>I have stayed at many different extended stay type of hotels and I must say, by far, this is the cleanest, quietest and most comfortable of them all.  It is conveniently located directly off of I-10 within close proximity of a small truck stop/CASINO and a SWAMP TOUR establishment.  The rooms are quite spacious and up-to-date.  Clean carpets.  Flat screen tvs with cable (64 channels and HBO).  A full refrigerator and counter-top stove are provided with pots, pans, silver and dishware which were all clean upon check-in.  Bathroom has soft water that runs very hot with a soothing shower head.  Thick bath towels.  Beds are extremely plush and comfortable.  Wi-Fi easily connected.  But to make the stay even better was the friendliness of the staff.  Mallory, front desk clerk, greets you with a warm welcome as though she's really happy you're there and Jessica, head of housekeeping, went above and beyond to make sure I had everything needed on a daily basis to make the stay more comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I have stayed at many different extended stay type of hotels and I must say, by far, this is the cleanest, quietest and most comfortable of them all.  It is conveniently located directly off of I-10 within close proximity of a small truck stop/CASINO and a SWAMP TOUR establishment.  The rooms are quite spacious and up-to-date.  Clean carpets.  Flat screen tvs with cable (64 channels and HBO).  A full refrigerator and counter-top stove are provided with pots, pans, silver and dishware which were all clean upon check-in.  Bathroom has soft water that runs very hot with a soothing shower head.  Thick bath towels.  Beds are extremely plush and comfortable.  Wi-Fi easily connected.  But to make the stay even better was the friendliness of the staff.  Mallory, front desk clerk, greets you with a warm welcome as though she's really happy you're there and Jessica, head of housekeeping, went above and beyond to make sure I had everything needed on a daily basis to make the stay more comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r251506955-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>251506955</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>Glasses and silverware were dirty but when we got to the cups, there was slime in the bottom.  Not a nice place.  Otherwise, acceptable except the staff was nice.  The location to downtown New Orleans was fine, about 1/2 hour away.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Glasses and silverware were dirty but when we got to the cups, there was slime in the bottom.  Not a nice place.  Otherwise, acceptable except the staff was nice.  The location to downtown New Orleans was fine, about 1/2 hour away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r224706174-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>224706174</t>
+  </si>
+  <si>
+    <t>08/26/2014</t>
+  </si>
+  <si>
+    <t>Had a great stay, thank you.</t>
+  </si>
+  <si>
+    <t>My mom, sister, my son and I stayed 3 days while visiting my dad who because of his job has to travel a lot. Check in was quick and the guy at the front desk was nice. Our room was a little warm because the AC was off but it cooled down quickly once we turned it on. The beds where great, pillows where big and the room was clean. We also liked how quiet the hotel was, which they also have a little pamphlet in your room that says after a certain time to please be quite. Which we didn't mind and thought it was a good thing they did that. I love how the rooms have a kitchen, refrigerator, dishes, pans and utensils. We went to Wal-Mart and bought a few groceries so we didn't have to spend money everyday eating out which ended up saving us money. My mom also loved that it was right next to the I-10 and was 30 minutes from New Orleans. We will definitely be staying here anytime my dad needs to work in La Place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded August 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2014</t>
+  </si>
+  <si>
+    <t>My mom, sister, my son and I stayed 3 days while visiting my dad who because of his job has to travel a lot. Check in was quick and the guy at the front desk was nice. Our room was a little warm because the AC was off but it cooled down quickly once we turned it on. The beds where great, pillows where big and the room was clean. We also liked how quiet the hotel was, which they also have a little pamphlet in your room that says after a certain time to please be quite. Which we didn't mind and thought it was a good thing they did that. I love how the rooms have a kitchen, refrigerator, dishes, pans and utensils. We went to Wal-Mart and bought a few groceries so we didn't have to spend money everyday eating out which ended up saving us money. My mom also loved that it was right next to the I-10 and was 30 minutes from New Orleans. We will definitely be staying here anytime my dad needs to work in La Place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r182987524-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>182987524</t>
+  </si>
+  <si>
+    <t>10/30/2013</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>We stayed at this Motel prior to our departure from the USA back to the UK. As previously stated the Motel has been updated and smelled clean and well maintained, We were told by the not so smiley desk lady that room we had was a non smoker (200) on the smoking room floor, which sounded rather strange even though we had booked the room a month or so ago. Walking down the smoke smelled corridor did not fill us with much hope however we were pleasantly surprised at our room. A large room with large bathroom and kitchenette.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded November 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this Motel prior to our departure from the USA back to the UK. As previously stated the Motel has been updated and smelled clean and well maintained, We were told by the not so smiley desk lady that room we had was a non smoker (200) on the smoking room floor, which sounded rather strange even though we had booked the room a month or so ago. Walking down the smoke smelled corridor did not fill us with much hope however we were pleasantly surprised at our room. A large room with large bathroom and kitchenette.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r178886801-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>178886801</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>great facility.. HORRIBLE customer service</t>
+  </si>
+  <si>
+    <t>I stayed here a few weeks back. The room was nice; it had an awesome shower and was surprised to have n hot tub in there as well. the 2 ladies on the night shift were nice... HOWEVER when I went to check out I waited 25 mins for someone to come to the front.. finally I went outside to go to my car and I found the manager/clerk sitting infront the main door to the hotel smoking and on her phone. When I told her I was leaving she didn't even bother to get up she simply asked for my last name so that she could check me out...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded September 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here a few weeks back. The room was nice; it had an awesome shower and was surprised to have n hot tub in there as well. the 2 ladies on the night shift were nice... HOWEVER when I went to check out I waited 25 mins for someone to come to the front.. finally I went outside to go to my car and I found the manager/clerk sitting infront the main door to the hotel smoking and on her phone. When I told her I was leaving she didn't even bother to get up she simply asked for my last name so that she could check me out...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r169102685-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>169102685</t>
+  </si>
+  <si>
+    <t>07/25/2013</t>
+  </si>
+  <si>
+    <t>Don't stay here</t>
+  </si>
+  <si>
+    <t>I work outside construction so when I came in from a hot days work I found out that the staff had shut my ac off and it was almost 90 degrees in my room. My bed wasn't made. Pillows are so thin that I had to put a sheet inside pillowcase to make a pillow. Bed didn't have fitted sheets. They didn't even change my towels out. I had to take my towels down to front desk to get new towels. They said that they only change towels once weekly or unless you check out. Had to park in back of parking lot at truckstop beside hotel then walk all away around to front to get in. Will not recommend staying this hotel MoreShow less</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded July 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2013</t>
+  </si>
+  <si>
+    <t>I work outside construction so when I came in from a hot days work I found out that the staff had shut my ac off and it was almost 90 degrees in my room. My bed wasn't made. Pillows are so thin that I had to put a sheet inside pillowcase to make a pillow. Bed didn't have fitted sheets. They didn't even change my towels out. I had to take my towels down to front desk to get new towels. They said that they only change towels once weekly or unless you check out. Had to park in back of parking lot at truckstop beside hotel then walk all away around to front to get in. Will not recommend staying this hotel More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r166518235-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>166518235</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>We were in LaPlace for the Mardi Gras. The staff was friendly. The room was clean. The walls are kinda thin, as we could hear our neighbor's TV. The price was reasonable for that time of year. Rooms are very expensive during Mari Gras time. Their rooms were right at a hundred bucks a night. Good location right on I-10. Lots of truckers, but still family friendly. We also ate a charming restaurant named Huddle House that was very affordable. It was five of us and we paid less than $30 including a tip. The service there was wonderful. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>We were in LaPlace for the Mardi Gras. The staff was friendly. The room was clean. The walls are kinda thin, as we could hear our neighbor's TV. The price was reasonable for that time of year. Rooms are very expensive during Mari Gras time. Their rooms were right at a hundred bucks a night. Good location right on I-10. Lots of truckers, but still family friendly. We also ate a charming restaurant named Huddle House that was very affordable. It was five of us and we paid less than $30 including a tip. The service there was wonderful. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r154957453-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>154957453</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Not a vacation spot</t>
+  </si>
+  <si>
+    <t>We wanted a weekend gateaway to come to a clean room after a long day of sightseeing. Only to find out that we were not getting housekeeping service unless we wanted to get charged for it. So when we needed clean towels we had to go to front desk and trade out dirty for clean towels. Take out our own trash. Linen had some stains. Only one shampoo for 3 people staying 3 nights. The bathroom was clean but toilett paper was more than half used. Furniture was damaged and needs paint touch up. Iron board cover was old and stained. We booked here due to the good reviews we saw but honestly if other hotels arround had rooms we would leave and check in somewhere else. Only one more night and we go back home, now off i go to get my towels....MoreShow less</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>We wanted a weekend gateaway to come to a clean room after a long day of sightseeing. Only to find out that we were not getting housekeeping service unless we wanted to get charged for it. So when we needed clean towels we had to go to front desk and trade out dirty for clean towels. Take out our own trash. Linen had some stains. Only one shampoo for 3 people staying 3 nights. The bathroom was clean but toilett paper was more than half used. Furniture was damaged and needs paint touch up. Iron board cover was old and stained. We booked here due to the good reviews we saw but honestly if other hotels arround had rooms we would leave and check in somewhere else. Only one more night and we go back home, now off i go to get my towels....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r138149454-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>138149454</t>
+  </si>
+  <si>
+    <t>08/23/2012</t>
+  </si>
+  <si>
+    <t>A huge step up from where I had been staying</t>
+  </si>
+  <si>
+    <t>I stayed here for almost three weeks on business.  Before coming to the Suburban Extended Stay, my co-workers and I were staying at the Sun Suites in Metairie, which was pretty awful.  So we were relieved to be in a clean, safe-feeling hotel.  
+The rooms were spacious, the kitchenette was clean and functional, and the beds were comfy.  I used the laundry room several times and had no problems.  The front desk staff was friendly and helpful.  
+There are three reasons why I'm giving this hotel 3 stars instead of 4.  First, we had some issues with the internet.  I was able to get mine working again after calling tech support, but my co-workers were not able to fix theirs.  Second, the pool was fairly dirty, with visible scum along the bottom.  The only reason we went in the pool was because a water pipe burst in LaPlace, taking out water to the whole city, so we couldn't shower.  After swimming we felt even more dirty.  Third, I had the bottom floor room on the end, and every Friday night, there was a party on the picnic tables right outside my window.  My co-workers also had some issues with other people in the building who were partying in the next room.  
+I would recommend this hotel if you are staying in the area for a while.  But try to avoid room 134 because it's right by the "party area."  Also...I stayed here for almost three weeks on business.  Before coming to the Suburban Extended Stay, my co-workers and I were staying at the Sun Suites in Metairie, which was pretty awful.  So we were relieved to be in a clean, safe-feeling hotel.  The rooms were spacious, the kitchenette was clean and functional, and the beds were comfy.  I used the laundry room several times and had no problems.  The front desk staff was friendly and helpful.  There are three reasons why I'm giving this hotel 3 stars instead of 4.  First, we had some issues with the internet.  I was able to get mine working again after calling tech support, but my co-workers were not able to fix theirs.  Second, the pool was fairly dirty, with visible scum along the bottom.  The only reason we went in the pool was because a water pipe burst in LaPlace, taking out water to the whole city, so we couldn't shower.  After swimming we felt even more dirty.  Third, I had the bottom floor room on the end, and every Friday night, there was a party on the picnic tables right outside my window.  My co-workers also had some issues with other people in the building who were partying in the next room.  I would recommend this hotel if you are staying in the area for a while.  But try to avoid room 134 because it's right by the "party area."  Also look into the Holiday Inn, which is just across the road.  Some of our other co-workers stayed there, and it was really nice, although more expensive.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Suburban199, General Manager at Suburban Extended Stay, responded to this reviewResponded November 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2012</t>
+  </si>
+  <si>
+    <t>I stayed here for almost three weeks on business.  Before coming to the Suburban Extended Stay, my co-workers and I were staying at the Sun Suites in Metairie, which was pretty awful.  So we were relieved to be in a clean, safe-feeling hotel.  
+The rooms were spacious, the kitchenette was clean and functional, and the beds were comfy.  I used the laundry room several times and had no problems.  The front desk staff was friendly and helpful.  
+There are three reasons why I'm giving this hotel 3 stars instead of 4.  First, we had some issues with the internet.  I was able to get mine working again after calling tech support, but my co-workers were not able to fix theirs.  Second, the pool was fairly dirty, with visible scum along the bottom.  The only reason we went in the pool was because a water pipe burst in LaPlace, taking out water to the whole city, so we couldn't shower.  After swimming we felt even more dirty.  Third, I had the bottom floor room on the end, and every Friday night, there was a party on the picnic tables right outside my window.  My co-workers also had some issues with other people in the building who were partying in the next room.  
+I would recommend this hotel if you are staying in the area for a while.  But try to avoid room 134 because it's right by the "party area."  Also...I stayed here for almost three weeks on business.  Before coming to the Suburban Extended Stay, my co-workers and I were staying at the Sun Suites in Metairie, which was pretty awful.  So we were relieved to be in a clean, safe-feeling hotel.  The rooms were spacious, the kitchenette was clean and functional, and the beds were comfy.  I used the laundry room several times and had no problems.  The front desk staff was friendly and helpful.  There are three reasons why I'm giving this hotel 3 stars instead of 4.  First, we had some issues with the internet.  I was able to get mine working again after calling tech support, but my co-workers were not able to fix theirs.  Second, the pool was fairly dirty, with visible scum along the bottom.  The only reason we went in the pool was because a water pipe burst in LaPlace, taking out water to the whole city, so we couldn't shower.  After swimming we felt even more dirty.  Third, I had the bottom floor room on the end, and every Friday night, there was a party on the picnic tables right outside my window.  My co-workers also had some issues with other people in the building who were partying in the next room.  I would recommend this hotel if you are staying in the area for a while.  But try to avoid room 134 because it's right by the "party area."  Also look into the Holiday Inn, which is just across the road.  Some of our other co-workers stayed there, and it was really nice, although more expensive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r128492608-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>128492608</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Smoking Bathroom in a Non Smoking Room???</t>
+  </si>
+  <si>
+    <t>Stayed here one night in April 2012. Price is great. Hotel seemed clean and staff was nice. I don't smoke and don't care to be around smoking. I booked a NON SMOKING ROOM. When I checked in... the clerk said it's a Non Smoking room, but it's on a Smoking floor. Well, my fault I didn't leave at that moment. She re-iterated it is a NON Smoking room. I said ok we'll give it a whirl. I think the # is 205. I know it's on the 2nd floor because we had to take the SMOKING ELEVATOR to the Smoking floor and.....yes the room is a non smoking room, the room was very clean no smoke smell in it at all and oddly huge. The TV is about 20 feet from the bed, nice spacious room though. All was ok until later when you go to use the restroom to shower, brush your teeth or whatever and it smells of smoke!!! horribly smelly yet the room was still great. As the night goes the bathroom gets worse. We had to keep the bathroom door closed. I only used it for very brief moments so much for the shower I was looking forward to. My "Average" Rating is due to the Smoky Bathroom. I do understand the South is still in a Smoke stage of life and I'm just not used to it anymore.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Suburban199, Director of Sales at Suburban Extended Stay, responded to this reviewResponded May 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here one night in April 2012. Price is great. Hotel seemed clean and staff was nice. I don't smoke and don't care to be around smoking. I booked a NON SMOKING ROOM. When I checked in... the clerk said it's a Non Smoking room, but it's on a Smoking floor. Well, my fault I didn't leave at that moment. She re-iterated it is a NON Smoking room. I said ok we'll give it a whirl. I think the # is 205. I know it's on the 2nd floor because we had to take the SMOKING ELEVATOR to the Smoking floor and.....yes the room is a non smoking room, the room was very clean no smoke smell in it at all and oddly huge. The TV is about 20 feet from the bed, nice spacious room though. All was ok until later when you go to use the restroom to shower, brush your teeth or whatever and it smells of smoke!!! horribly smelly yet the room was still great. As the night goes the bathroom gets worse. We had to keep the bathroom door closed. I only used it for very brief moments so much for the shower I was looking forward to. My "Average" Rating is due to the Smoky Bathroom. I do understand the South is still in a Smoke stage of life and I'm just not used to it anymore.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r128360595-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>128360595</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>We stayed there for only one night because hotel prices in New Orleans were absurd and we needed to be at the airport early in the next morning, but then we thought it would have been nice to stay there for more days. The room is very spacious, comfortable bed, we could buy groceries and cook whatever we wanted, it has a very functional kitchen in the room, great for extended stay. Maybe next time we pass by Louisiana we will stay there longer.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed there for only one night because hotel prices in New Orleans were absurd and we needed to be at the airport early in the next morning, but then we thought it would have been nice to stay there for more days. The room is very spacious, comfortable bed, we could buy groceries and cook whatever we wanted, it has a very functional kitchen in the room, great for extended stay. Maybe next time we pass by Louisiana we will stay there longer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r124043632-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>124043632</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>Would stay here again.</t>
+  </si>
+  <si>
+    <t>We stayed in the king suite on the ground floor for five nights. The hotel has been recently renovated and our room was spacious with a nice kitchen, garden tub and open floor plan . We used the business center and fax machine while we were there as well as the laundry facilities. All were more than adequate for our needs. The best part of this hotel was the friendly and very helpful front desk staff! We were there adopting our daughter and they were wonderful to work with! They took care of our faxes and made sure we got what was faxed to us as soon as we got in. They were extremely kind and very helpful when we needed advice on sightseeing. On our last day we were running late for our late check out and they were very nice about that and didn't push us out of our room. We would definitely stay here again! The hotel was clean and in a quieter part of town. You can't go wrong with this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Suburban199, Director of Sales at Suburban Extended Stay, responded to this reviewResponded April 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2012</t>
+  </si>
+  <si>
+    <t>We stayed in the king suite on the ground floor for five nights. The hotel has been recently renovated and our room was spacious with a nice kitchen, garden tub and open floor plan . We used the business center and fax machine while we were there as well as the laundry facilities. All were more than adequate for our needs. The best part of this hotel was the friendly and very helpful front desk staff! We were there adopting our daughter and they were wonderful to work with! They took care of our faxes and made sure we got what was faxed to us as soon as we got in. They were extremely kind and very helpful when we needed advice on sightseeing. On our last day we were running late for our late check out and they were very nice about that and didn't push us out of our room. We would definitely stay here again! The hotel was clean and in a quieter part of town. You can't go wrong with this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g40267-d1231096-r106758202-Suburban_Extended_Stay-LaPlace_Louisiana.html</t>
+  </si>
+  <si>
+    <t>106758202</t>
+  </si>
+  <si>
+    <t>05/03/2011</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>Reasonably priced for the New Orleans area, this older hotel has been well updated: granite counters, nice carpet, updated furniture.  Lots of room; would work well for an extended stay (kitchenette, etc.).</t>
+  </si>
+  <si>
+    <t>May 2011</t>
   </si>
   <si>
     <t>Hotel_Name</t>
@@ -558,6 +1667,3178 @@
         <v>24</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>91</v>
+      </c>
+      <c r="O11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>103</v>
+      </c>
+      <c r="O12" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
+        <v>108</v>
+      </c>
+      <c r="L13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>111</v>
+      </c>
+      <c r="X13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J14" t="s">
+        <v>116</v>
+      </c>
+      <c r="K14" t="s">
+        <v>117</v>
+      </c>
+      <c r="L14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>111</v>
+      </c>
+      <c r="X14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+      <c r="O18" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19" t="s">
+        <v>149</v>
+      </c>
+      <c r="L19" t="s">
+        <v>150</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>145</v>
+      </c>
+      <c r="O19" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" t="s">
+        <v>156</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>145</v>
+      </c>
+      <c r="O20" t="s">
+        <v>49</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" t="s">
+        <v>160</v>
+      </c>
+      <c r="K21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L21" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>145</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>164</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+      <c r="L22" t="s">
+        <v>167</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>49</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" t="s">
+        <v>172</v>
+      </c>
+      <c r="L23" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>168</v>
+      </c>
+      <c r="O23" t="s">
+        <v>49</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>175</v>
+      </c>
+      <c r="J24" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" t="s">
+        <v>177</v>
+      </c>
+      <c r="L24" t="s">
+        <v>178</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
+        <v>49</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>181</v>
+      </c>
+      <c r="J25" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" t="s">
+        <v>183</v>
+      </c>
+      <c r="L25" t="s">
+        <v>184</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>168</v>
+      </c>
+      <c r="O25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>186</v>
+      </c>
+      <c r="J26" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" t="s">
+        <v>188</v>
+      </c>
+      <c r="L26" t="s">
+        <v>189</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>179</v>
+      </c>
+      <c r="O26" t="s">
+        <v>34</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>190</v>
+      </c>
+      <c r="X26" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" t="s">
+        <v>196</v>
+      </c>
+      <c r="L27" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>179</v>
+      </c>
+      <c r="O27" t="s">
+        <v>34</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>198</v>
+      </c>
+      <c r="X27" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" t="s">
+        <v>205</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>179</v>
+      </c>
+      <c r="O28" t="s">
+        <v>49</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>206</v>
+      </c>
+      <c r="X28" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>217</v>
+      </c>
+      <c r="J30" t="s">
+        <v>218</v>
+      </c>
+      <c r="K30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" t="s">
+        <v>220</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s">
+        <v>34</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>222</v>
+      </c>
+      <c r="X30" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>226</v>
+      </c>
+      <c r="J31" t="s">
+        <v>227</v>
+      </c>
+      <c r="K31" t="s">
+        <v>228</v>
+      </c>
+      <c r="L31" t="s">
+        <v>229</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>138</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>230</v>
+      </c>
+      <c r="X31" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>214</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>238</v>
+      </c>
+      <c r="X32" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>242</v>
+      </c>
+      <c r="J33" t="s">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s">
+        <v>244</v>
+      </c>
+      <c r="L33" t="s">
+        <v>245</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>221</v>
+      </c>
+      <c r="O33" t="s">
+        <v>49</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>246</v>
+      </c>
+      <c r="X33" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>249</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>250</v>
+      </c>
+      <c r="J34" t="s">
+        <v>251</v>
+      </c>
+      <c r="K34" t="s">
+        <v>252</v>
+      </c>
+      <c r="L34" t="s">
+        <v>253</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>254</v>
+      </c>
+      <c r="O34" t="s">
+        <v>34</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>246</v>
+      </c>
+      <c r="X34" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>256</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" t="s">
+        <v>257</v>
+      </c>
+      <c r="J35" t="s">
+        <v>258</v>
+      </c>
+      <c r="K35" t="s">
+        <v>259</v>
+      </c>
+      <c r="L35" t="s">
+        <v>260</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>261</v>
+      </c>
+      <c r="O35" t="s">
+        <v>34</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>238</v>
+      </c>
+      <c r="X35" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I36" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s">
+        <v>267</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>268</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>238</v>
+      </c>
+      <c r="X36" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>275</v>
+      </c>
+      <c r="O37" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>238</v>
+      </c>
+      <c r="X37" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O38" t="s">
+        <v>34</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>283</v>
+      </c>
+      <c r="X38" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>286</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s">
+        <v>287</v>
+      </c>
+      <c r="J39" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" t="s">
+        <v>288</v>
+      </c>
+      <c r="L39" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O39" t="s">
+        <v>34</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>283</v>
+      </c>
+      <c r="X39" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>292</v>
+      </c>
+      <c r="G40" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s">
+        <v>293</v>
+      </c>
+      <c r="J40" t="s">
+        <v>294</v>
+      </c>
+      <c r="K40" t="s">
+        <v>295</v>
+      </c>
+      <c r="L40" t="s">
+        <v>296</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>297</v>
+      </c>
+      <c r="O40" t="s">
+        <v>56</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>298</v>
+      </c>
+      <c r="X40" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>301</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s">
+        <v>302</v>
+      </c>
+      <c r="J41" t="s">
+        <v>303</v>
+      </c>
+      <c r="K41" t="s">
+        <v>304</v>
+      </c>
+      <c r="L41" t="s">
+        <v>305</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>306</v>
+      </c>
+      <c r="X41" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>309</v>
+      </c>
+      <c r="G42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" t="s">
+        <v>28</v>
+      </c>
+      <c r="I42" t="s">
+        <v>310</v>
+      </c>
+      <c r="J42" t="s">
+        <v>311</v>
+      </c>
+      <c r="K42" t="s">
+        <v>312</v>
+      </c>
+      <c r="L42" t="s">
+        <v>313</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>314</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>315</v>
+      </c>
+      <c r="X42" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>323</v>
+      </c>
+      <c r="O43" t="s">
+        <v>324</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>325</v>
+      </c>
+      <c r="X43" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>328</v>
+      </c>
+      <c r="G44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" t="s">
+        <v>28</v>
+      </c>
+      <c r="I44" t="s">
+        <v>329</v>
+      </c>
+      <c r="J44" t="s">
+        <v>330</v>
+      </c>
+      <c r="K44" t="s">
+        <v>331</v>
+      </c>
+      <c r="L44" t="s">
+        <v>332</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>333</v>
+      </c>
+      <c r="X44" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>336</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" t="s">
+        <v>337</v>
+      </c>
+      <c r="J45" t="s">
+        <v>338</v>
+      </c>
+      <c r="K45" t="s">
+        <v>339</v>
+      </c>
+      <c r="L45" t="s">
+        <v>340</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>341</v>
+      </c>
+      <c r="O45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>342</v>
+      </c>
+      <c r="X45" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>345</v>
+      </c>
+      <c r="G46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I46" t="s">
+        <v>346</v>
+      </c>
+      <c r="J46" t="s">
+        <v>347</v>
+      </c>
+      <c r="K46" t="s">
+        <v>348</v>
+      </c>
+      <c r="L46" t="s">
+        <v>349</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>350</v>
+      </c>
+      <c r="X46" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>353</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s">
+        <v>28</v>
+      </c>
+      <c r="I47" t="s">
+        <v>354</v>
+      </c>
+      <c r="J47" t="s">
+        <v>355</v>
+      </c>
+      <c r="K47" t="s">
+        <v>356</v>
+      </c>
+      <c r="L47" t="s">
+        <v>357</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>358</v>
+      </c>
+      <c r="O47" t="s">
+        <v>34</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>359</v>
+      </c>
+      <c r="X47" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>362</v>
+      </c>
+      <c r="G48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I48" t="s">
+        <v>363</v>
+      </c>
+      <c r="J48" t="s">
+        <v>364</v>
+      </c>
+      <c r="K48" t="s">
+        <v>365</v>
+      </c>
+      <c r="L48" t="s">
+        <v>366</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>367</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>368</v>
+      </c>
+      <c r="X48" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>371</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>28</v>
+      </c>
+      <c r="I49" t="s">
+        <v>372</v>
+      </c>
+      <c r="J49" t="s">
+        <v>373</v>
+      </c>
+      <c r="K49" t="s">
+        <v>374</v>
+      </c>
+      <c r="L49" t="s">
+        <v>375</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>367</v>
+      </c>
+      <c r="O49" t="s">
+        <v>63</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>368</v>
+      </c>
+      <c r="X49" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>377</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>28</v>
+      </c>
+      <c r="I50" t="s">
+        <v>378</v>
+      </c>
+      <c r="J50" t="s">
+        <v>379</v>
+      </c>
+      <c r="K50" t="s">
+        <v>380</v>
+      </c>
+      <c r="L50" t="s">
+        <v>381</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>382</v>
+      </c>
+      <c r="O50" t="s">
+        <v>49</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>383</v>
+      </c>
+      <c r="X50" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>57568</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>386</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I51" t="s">
+        <v>387</v>
+      </c>
+      <c r="J51" t="s">
+        <v>388</v>
+      </c>
+      <c r="K51" t="s">
+        <v>389</v>
+      </c>
+      <c r="L51" t="s">
+        <v>390</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>391</v>
+      </c>
+      <c r="O51" t="s">
+        <v>49</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -580,31 +4861,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>392</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>393</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>394</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>395</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>396</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
+        <v>397</v>
       </c>
       <c r="H1" t="s">
-        <v>31</v>
+        <v>398</v>
       </c>
       <c r="I1" t="s">
-        <v>32</v>
+        <v>399</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
@@ -612,31 +4893,31 @@
         <v>57568</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>402</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>403</v>
       </c>
       <c r="E2" t="n">
         <v>70068</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>404</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>405</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>407</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
